--- a/豆瓣电影 Top 250.xlsx
+++ b/豆瓣电影 Top 250.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -666,9 +666,2484 @@
         <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1454261925.jpg</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>控方证人 / Witness for the Prosecution</v>
+      </c>
+      <c r="B27" t="str">
+        <v>9.6</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1505392928.jpg</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>蝙蝠侠：黑暗骑士 / The Dark Knight</v>
+      </c>
+      <c r="B28" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p462657443.jpg</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>活着</v>
+      </c>
+      <c r="B29" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2513253791.jpg</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>末代皇帝 / The Last Emperor</v>
+      </c>
+      <c r="B30" t="str">
+        <v>9.3</v>
+      </c>
+      <c r="C30" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p452089833.jpg</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>寻梦环游记 / Coco</v>
+      </c>
+      <c r="B31" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C31" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2614500706.jpg</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>乱世佳人 / Gone with the Wind</v>
+      </c>
+      <c r="B32" t="str">
+        <v>9.3</v>
+      </c>
+      <c r="C32" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1963126880.jpg</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>摔跤吧！爸爸 / Dangal</v>
+      </c>
+      <c r="B33" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C33" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2457983084.jpg</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>何以为家 / كفرناحوم</v>
+      </c>
+      <c r="B34" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C34" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2555295759.jpg</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>指环王3：王者无敌 / The Lord of the Rings: The Return of the King</v>
+      </c>
+      <c r="B35" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C35" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1910825503.jpg</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>少年派的奇幻漂流 / Life of Pi</v>
+      </c>
+      <c r="B36" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C36" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1784592701.jpg</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>飞屋环游记 / Up</v>
+      </c>
+      <c r="B37" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C37" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p485887754.jpg</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>十二怒汉 / 12 Angry Men</v>
+      </c>
+      <c r="B38" t="str">
+        <v>9.4</v>
+      </c>
+      <c r="C38" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2173577632.jpg</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>鬼子来了</v>
+      </c>
+      <c r="B39" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C39" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2553104888.jpg</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>素媛 / 소원</v>
+      </c>
+      <c r="B40" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C40" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2118532944.jpg</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>天空之城 / 天空の城ラピュタ</v>
+      </c>
+      <c r="B41" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C41" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1446261379.jpg</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>哈尔的移动城堡 / ハウルの動く城</v>
+      </c>
+      <c r="B42" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C42" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2174346180.jpg</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>大话西游之月光宝盒 / 西遊記第壹佰零壹回之月光寶盒</v>
+      </c>
+      <c r="B43" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2561721372.jpg</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>天堂电影院 / Nuovo Cinema Paradiso</v>
+      </c>
+      <c r="B44" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2559577569.jpg</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>哈利·波特与魔法石 / Harry Potter and the Sorcerer's Stone</v>
+      </c>
+      <c r="B45" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2614949805.jpg</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>罗马假日 / Roman Holiday</v>
+      </c>
+      <c r="B46" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2189265085.jpg</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>闻香识女人 / Scent of a Woman</v>
+      </c>
+      <c r="B47" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2550757929.jpg</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>辩护人 / 변호인</v>
+      </c>
+      <c r="B48" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2158166535.jpg</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>我不是药神</v>
+      </c>
+      <c r="B49" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C49" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2561305376.jpg</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>搏击俱乐部 / Fight Club</v>
+      </c>
+      <c r="B50" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C50" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1910926158.jpg</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>死亡诗社 / Dead Poets Society</v>
+      </c>
+      <c r="B51" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2575465690.jpg</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>教父2 / The Godfather: Part Ⅱ</v>
+      </c>
+      <c r="B52" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C52" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2194138787.jpg</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>狮子王 / The Lion King</v>
+      </c>
+      <c r="B53" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C53" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2277799019.jpg</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>指环王2：双塔奇兵 / The Lord of the Rings: The Two Towers</v>
+      </c>
+      <c r="B54" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C54" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p909265336.jpg</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>大闹天宫</v>
+      </c>
+      <c r="B55" t="str">
+        <v>9.3</v>
+      </c>
+      <c r="C55" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2184505167.jpg</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>猫鼠游戏 / Catch Me If You Can</v>
+      </c>
+      <c r="B56" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C56" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p453924541.jpg</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>窃听风暴 / Das Leben der Anderen</v>
+      </c>
+      <c r="B57" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C57" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1808872109.jpg</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>指环王1：魔戒再现 / The Lord of the Rings: The Fellowship of the Ring</v>
+      </c>
+      <c r="B58" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C58" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1354436051.jpg</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>钢琴家 / The Pianist</v>
+      </c>
+      <c r="B59" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C59" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p792376093.jpg</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>美丽心灵 / A Beautiful Mind</v>
+      </c>
+      <c r="B60" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C60" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1665997400.jpg</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>两杆大烟枪 / Lock, Stock and Two Smoking Barrels</v>
+      </c>
+      <c r="B61" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C61" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p792443418.jpg</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>黑客帝国 / The Matrix</v>
+      </c>
+      <c r="B62" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C62" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p451926968.jpg</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>饮食男女 / 飲食男女</v>
+      </c>
+      <c r="B63" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C63" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1910899751.jpg</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>飞越疯人院 / One Flew Over the Cuckoo's Nest</v>
+      </c>
+      <c r="B64" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C64" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p792238287.jpg</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>本杰明·巴顿奇事 / The Curious Case of Benjamin Button</v>
+      </c>
+      <c r="B65" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C65" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2192535722.jpg</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>V字仇杀队 / V for Vendetta</v>
+      </c>
+      <c r="B66" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C66" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1465235231.jpg</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>让子弹飞</v>
+      </c>
+      <c r="B67" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C67" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1512562287.jpg</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>看不见的客人 / Contratiempo</v>
+      </c>
+      <c r="B68" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C68" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2498971355.jpg</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>绿皮书 / Green Book</v>
+      </c>
+      <c r="B69" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C69" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2549177902.jpg</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>西西里的美丽传说 / Malèna</v>
+      </c>
+      <c r="B70" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C70" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2448029416.jpg</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>小鞋子 / بچههای آسمان</v>
+      </c>
+      <c r="B71" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C71" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2173580536.jpg</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>拯救大兵瑞恩 / Saving Private Ryan</v>
+      </c>
+      <c r="B72" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C72" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1014542496.jpg</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>海豚湾 / The Cove</v>
+      </c>
+      <c r="B73" t="str">
+        <v>9.3</v>
+      </c>
+      <c r="C73" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2559579779.jpg</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>海蒂和爷爷 / Heidi</v>
+      </c>
+      <c r="B74" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C74" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2554525534.jpg</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>情书 / Love Letter</v>
+      </c>
+      <c r="B75" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C75" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p449897379.jpg</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>穿条纹睡衣的男孩 / The Boy in the Striped Pajamas</v>
+      </c>
+      <c r="B76" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C76" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1473670352.jpg</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>音乐之声 / The Sound of Music</v>
+      </c>
+      <c r="B77" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C77" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p453788577.jpg</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>美国往事 / Once Upon a Time in America</v>
+      </c>
+      <c r="B78" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C78" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p477229647.jpg</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>致命魔术 / The Prestige</v>
+      </c>
+      <c r="B79" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C79" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p480383375.jpg</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>低俗小说 / Pulp Fiction</v>
+      </c>
+      <c r="B80" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C80" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1910902213.jpg</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>七宗罪 / Se7en</v>
+      </c>
+      <c r="B81" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C81" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2219586434.jpg</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>沉默的羔羊 / The Silence of the Lambs</v>
+      </c>
+      <c r="B82" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C82" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1593414327.jpg</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>蝴蝶效应 / The Butterfly Effect</v>
+      </c>
+      <c r="B83" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C83" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2209066019.jpg</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>禁闭岛 / Shutter Island</v>
+      </c>
+      <c r="B84" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C84" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1832875827.jpg</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>心灵捕手 / Good Will Hunting</v>
+      </c>
+      <c r="B85" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C85" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p480965695.jpg</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>春光乍泄 / 春光乍洩</v>
+      </c>
+      <c r="B86" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C86" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p465939041.jpg</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>布达佩斯大饭店 / The Grand Budapest Hotel</v>
+      </c>
+      <c r="B87" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C87" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2178872593.jpg</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>被嫌弃的松子的一生 / 嫌われ松子の一生</v>
+      </c>
+      <c r="B88" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C88" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p884763596.jpg</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>阿凡达 / Avatar</v>
+      </c>
+      <c r="B89" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C89" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2180085848.jpg</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>摩登时代 / Modern Times</v>
+      </c>
+      <c r="B90" t="str">
+        <v>9.3</v>
+      </c>
+      <c r="C90" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2263408369.jpg</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>剪刀手爱德华 / Edward Scissorhands</v>
+      </c>
+      <c r="B91" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C91" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p480956937.jpg</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>勇敢的心 / Braveheart</v>
+      </c>
+      <c r="B92" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C92" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2218094815.jpg</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>喜剧之王 / 喜劇之王</v>
+      </c>
+      <c r="B93" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C93" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2579932167.jpg</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>天使爱美丽 / Le fabuleux destin d'Amélie Poulain</v>
+      </c>
+      <c r="B94" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C94" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2447590313.jpg</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>致命ID / Identity</v>
+      </c>
+      <c r="B95" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C95" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2558364386.jpg</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>加勒比海盗 / Pirates of the Caribbean: The Curse of the Black Pearl</v>
+      </c>
+      <c r="B96" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C96" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1596085504.jpg</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>哈利·波特与死亡圣器(下) / Harry Potter and the Deathly Hallows: Part 2</v>
+      </c>
+      <c r="B97" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C97" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p917846733.jpg</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>断背山 / Brokeback Mountain</v>
+      </c>
+      <c r="B98" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C98" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2514704949.jpg</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>杀人回忆 / 살인의 추억</v>
+      </c>
+      <c r="B99" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C99" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p657823840.jpg</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>狩猎 / Jagten</v>
+      </c>
+      <c r="B100" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C100" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1546987967.jpg</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>请以你的名字呼唤我 / Call Me by Your Name</v>
+      </c>
+      <c r="B101" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C101" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2505525050.jpg</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>幽灵公主 / もののけ姫</v>
+      </c>
+      <c r="B102" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C102" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1613191025.jpg</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>阳光灿烂的日子</v>
+      </c>
+      <c r="B103" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C103" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2564685215.jpg</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>小森林 夏秋篇 / リトル・フォレスト 夏・秋</v>
+      </c>
+      <c r="B104" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C104" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2564498893.jpg</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>7号房的礼物 / 7번방의 선물</v>
+      </c>
+      <c r="B105" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C105" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1816276065.jpg</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>重庆森林 / 重慶森林</v>
+      </c>
+      <c r="B106" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C106" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p792381411.jpg</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>第六感 / The Sixth Sense</v>
+      </c>
+      <c r="B107" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C107" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2220184425.jpg</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>入殓师 / おくりびと</v>
+      </c>
+      <c r="B108" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C108" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1583839859.jpg</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>红辣椒 / パプリカ</v>
+      </c>
+      <c r="B109" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C109" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p456825720.jpg</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>小森林 冬春篇 / リトル・フォレスト 冬・春</v>
+      </c>
+      <c r="B110" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C110" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2258078370.jpg</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>消失的爱人 / Gone Girl</v>
+      </c>
+      <c r="B111" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C111" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2221768894.jpg</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>爱在黎明破晓前 / Before Sunrise</v>
+      </c>
+      <c r="B112" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C112" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2555762374.jpg</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>一一</v>
+      </c>
+      <c r="B113" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C113" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2567845803.jpg</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>侧耳倾听 / 耳をすませば</v>
+      </c>
+      <c r="B114" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C114" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p456692072.jpg</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>唐伯虎点秋香 / 唐伯虎點秋香</v>
+      </c>
+      <c r="B115" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C115" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2357915564.jpg</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>超脱 / Detachment</v>
+      </c>
+      <c r="B116" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C116" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1305562621.jpg</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>倩女幽魂</v>
+      </c>
+      <c r="B117" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C117" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2414157745.jpg</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>蝙蝠侠：黑暗骑士崛起 / The Dark Knight Rises</v>
+      </c>
+      <c r="B118" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C118" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1706428744.jpg</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>玛丽和马克思 / Mary and Max</v>
+      </c>
+      <c r="B119" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C119" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2162822165.jpg</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>告白</v>
+      </c>
+      <c r="B120" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C120" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p689520756.jpg</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>甜蜜蜜</v>
+      </c>
+      <c r="B121" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C121" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2223011274.jpg</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>无人知晓 / 誰も知らない</v>
+      </c>
+      <c r="B122" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C122" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p661160053.jpg</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>大鱼 / Big Fish</v>
+      </c>
+      <c r="B123" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C123" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p692813374.jpg</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>阳光姐妹淘 / 써니</v>
+      </c>
+      <c r="B124" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C124" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1374786017.jpg</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>萤火之森 / 蛍火の杜へ</v>
+      </c>
+      <c r="B125" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C125" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1675053073.jpg</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>超能陆战队 / Big Hero 6</v>
+      </c>
+      <c r="B126" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C126" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2614500883.jpg</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>驯龙高手 / How to Train Your Dragon</v>
+      </c>
+      <c r="B127" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C127" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2210954024.jpg</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>射雕英雄传之东成西就 / 射鵰英雄傳之東成西就</v>
+      </c>
+      <c r="B128" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C128" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2609063925.jpg</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>借东西的小人阿莉埃蒂 / 借りぐらしのアリエッティ</v>
+      </c>
+      <c r="B129" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C129" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p617533616.jpg</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>幸福终点站 / The Terminal</v>
+      </c>
+      <c r="B130" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C130" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p854757687.jpg</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>菊次郎的夏天 / 菊次郎の夏</v>
+      </c>
+      <c r="B131" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C131" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p751835224.jpg</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>爱在日落黄昏时 / Before Sunset</v>
+      </c>
+      <c r="B132" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C132" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2561542458.jpg</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>恐怖直播 / 더 테러 라이브</v>
+      </c>
+      <c r="B133" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C133" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2016930906.jpg</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>完美的世界 / A Perfect World</v>
+      </c>
+      <c r="B134" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C134" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2190556408.jpg</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>功夫</v>
+      </c>
+      <c r="B135" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C135" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2219011938.jpg</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>人生果实 / 人生フルーツ</v>
+      </c>
+      <c r="B136" t="str">
+        <v>9.5</v>
+      </c>
+      <c r="C136" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2544912792.jpg</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>神偷奶爸 / Despicable Me</v>
+      </c>
+      <c r="B137" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C137" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p792776858.jpg</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>怪兽电力公司 / Monsters, Inc.</v>
+      </c>
+      <c r="B138" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C138" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2513247938.jpg</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>玩具总动员3 / Toy Story 3</v>
+      </c>
+      <c r="B139" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C139" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1283675359.jpg</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>傲慢与偏见 / Pride &amp; Prejudice</v>
+      </c>
+      <c r="B140" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C140" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2016401659.jpg</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>血战钢锯岭 / Hacksaw Ridge</v>
+      </c>
+      <c r="B141" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C141" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2398141939.jpg</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>天书奇谭</v>
+      </c>
+      <c r="B142" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C142" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2515539487.jpg</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>风之谷 / 風の谷のナウシカ</v>
+      </c>
+      <c r="B143" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C143" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1917567652.jpg</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>教父3 / The Godfather: Part III</v>
+      </c>
+      <c r="B144" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C144" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2169664351.jpg</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>时空恋旅人 / About Time</v>
+      </c>
+      <c r="B145" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C145" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2070153774.jpg</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>上帝之城 / Cidade de Deus</v>
+      </c>
+      <c r="B146" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C146" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p455677490.jpg</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>电锯惊魂 / Saw</v>
+      </c>
+      <c r="B147" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C147" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1421159978.jpg</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>被解救的姜戈 / Django Unchained</v>
+      </c>
+      <c r="B148" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C148" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1959232369.jpg</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>喜宴 / 囍宴</v>
+      </c>
+      <c r="B149" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C149" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2173713676.jpg</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>哪吒闹海</v>
+      </c>
+      <c r="B150" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C150" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2516566783.jpg</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>釜山行 / 부산행</v>
+      </c>
+      <c r="B151" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C151" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2360940399.jpg</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>七武士 / 七人の侍</v>
+      </c>
+      <c r="B152" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C152" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2215886505.jpg</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>英雄本色</v>
+      </c>
+      <c r="B153" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C153" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2504997087.jpg</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>谍影重重3 / The Bourne Ultimatum</v>
+      </c>
+      <c r="B154" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C154" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p792223507.jpg</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>我是山姆 / I Am Sam</v>
+      </c>
+      <c r="B155" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C155" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p652417775.jpg</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>岁月神偷 / 歲月神偷</v>
+      </c>
+      <c r="B156" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C156" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p659427316.jpg</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>哈利·波特与阿兹卡班的囚徒 / Harry Potter and the Prisoner of Azkaban</v>
+      </c>
+      <c r="B157" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C157" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1910812549.jpg</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>头号玩家 / Ready Player One</v>
+      </c>
+      <c r="B158" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C158" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2516578307.jpg</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>纵横四海 / 緃横四海</v>
+      </c>
+      <c r="B159" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C159" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2597918718.jpg</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>疯狂原始人 / The Croods</v>
+      </c>
+      <c r="B160" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C160" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1867084027.jpg</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>三块广告牌 / Three Billboards Outside Ebbing, Missouri</v>
+      </c>
+      <c r="B161" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C161" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2510081688.jpg</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>心迷宫</v>
+      </c>
+      <c r="B162" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C162" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2276780256.jpg</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>一个叫欧维的男人决定去死 / En man som heter Ove</v>
+      </c>
+      <c r="B163" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C163" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2406624993.jpg</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>达拉斯买家俱乐部 / Dallas Buyers Club</v>
+      </c>
+      <c r="B164" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C164" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2166160837.jpg</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>卢旺达饭店 / Hotel Rwanda</v>
+      </c>
+      <c r="B165" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C165" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p470419493.jpg</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>萤火虫之墓 / 火垂るの墓</v>
+      </c>
+      <c r="B166" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C166" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1157334208.jpg</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>荒蛮故事 / Relatos salvajes</v>
+      </c>
+      <c r="B167" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C167" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2584519452.jpg</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>你的名字。 / 君の名は。</v>
+      </c>
+      <c r="B168" t="str">
+        <v>8.4</v>
+      </c>
+      <c r="C168" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2395733377.jpg</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>真爱至上 / Love Actually</v>
+      </c>
+      <c r="B169" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C169" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p475600770.jpg</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>贫民窟的百万富翁 / Slumdog Millionaire</v>
+      </c>
+      <c r="B170" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C170" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2434249040.jpg</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>花样年华 / 花樣年華</v>
+      </c>
+      <c r="B171" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C171" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1910828286.jpg</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>记忆碎片 / Memento</v>
+      </c>
+      <c r="B172" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C172" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p641688453.jpg</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>东邪西毒 / 東邪西毒</v>
+      </c>
+      <c r="B173" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C173" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1982176012.jpg</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>爆裂鼓手 / Whiplash</v>
+      </c>
+      <c r="B174" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C174" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2220776342.jpg</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>哈利·波特与密室 / Harry Potter and the Chamber of Secrets</v>
+      </c>
+      <c r="B175" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C175" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1082651990.jpg</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>黑天鹅 / Black Swan</v>
+      </c>
+      <c r="B176" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C176" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2549648344.jpg</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>黑客帝国3：矩阵革命 / The Matrix Revolutions</v>
+      </c>
+      <c r="B177" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C177" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2220873438.jpg</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>忠犬八公物语 / ハチ公物語</v>
+      </c>
+      <c r="B178" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C178" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1576418852.jpg</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>模仿游戏 / The Imitation Game</v>
+      </c>
+      <c r="B179" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C179" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2255040492.jpg</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>头脑特工队 / Inside Out</v>
+      </c>
+      <c r="B180" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C180" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2266293606.jpg</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>新世界 / 신세계</v>
+      </c>
+      <c r="B181" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C181" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1903379979.jpg</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>未麻的部屋 / Perfect Blue</v>
+      </c>
+      <c r="B182" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C182" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1351050722.jpg</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>你看起来好像很好吃 / おまえうまそうだな</v>
+      </c>
+      <c r="B183" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C183" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p709670262.jpg</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>雨人 / Rain Man</v>
+      </c>
+      <c r="B184" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C184" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2353324612.jpg</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>无敌破坏王 / Wreck-It Ralph</v>
+      </c>
+      <c r="B185" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C185" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1735642656.jpg</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>海街日记 / 海街diary</v>
+      </c>
+      <c r="B186" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C186" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2242546753.jpg</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>冰川时代 / Ice Age</v>
+      </c>
+      <c r="B187" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C187" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1910895719.jpg</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>恋恋笔记本 / The Notebook</v>
+      </c>
+      <c r="B188" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C188" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p483604864.jpg</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>惊魂记 / Psycho</v>
+      </c>
+      <c r="B189" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C189" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1021883305.jpg</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>二十二</v>
+      </c>
+      <c r="B190" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C190" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2457609817.jpg</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>海边的曼彻斯特 / Manchester by the Sea</v>
+      </c>
+      <c r="B191" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C191" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2421855655.jpg</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>恐怖游轮 / Triangle</v>
+      </c>
+      <c r="B192" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C192" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p462470694.jpg</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>房间 / Room</v>
+      </c>
+      <c r="B193" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C193" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2259715855.jpg</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>奇迹男孩 / Wonder</v>
+      </c>
+      <c r="B194" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C194" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2507709428.jpg</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>虎口脱险 / La grande vadrouille</v>
+      </c>
+      <c r="B195" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C195" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2399597512.jpg</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>魔女宅急便 / 魔女の宅急便</v>
+      </c>
+      <c r="B196" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C196" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p456676352.jpg</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>雨中曲 / Singin' in the Rain</v>
+      </c>
+      <c r="B197" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C197" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1612355875.jpg</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>小偷家族 / 万引き家族</v>
+      </c>
+      <c r="B198" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C198" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2530599636.jpg</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>疯狂的石头</v>
+      </c>
+      <c r="B199" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C199" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p712241453.jpg</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>绿里奇迹 / The Green Mile</v>
+      </c>
+      <c r="B200" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C200" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p767586451.jpg</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>人工智能 / Artificial Intelligence: AI</v>
+      </c>
+      <c r="B201" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C201" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p792257137.jpg</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>爱在午夜降临前 / Before Midnight</v>
+      </c>
+      <c r="B202" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C202" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2074715729.jpg</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>罗生门 / 羅生門</v>
+      </c>
+      <c r="B203" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C203" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2564689879.jpg</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>终结者2：审判日 / Terminator 2: Judgment Day</v>
+      </c>
+      <c r="B204" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C204" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1910909085.jpg</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>初恋这件小事 / สิ่งเล็กเล็กที่เรียกว่า...รัก</v>
+      </c>
+      <c r="B205" t="str">
+        <v>8.4</v>
+      </c>
+      <c r="C205" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p767451487.jpg</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>海洋 / Océans</v>
+      </c>
+      <c r="B206" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="C206" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2173334947.jpg</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>魂断蓝桥 / Waterloo Bridge</v>
+      </c>
+      <c r="B207" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C207" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2351134499.jpg</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>可可西里</v>
+      </c>
+      <c r="B208" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C208" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2414771522.jpg</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>2001太空漫游 / 2001: A Space Odyssey</v>
+      </c>
+      <c r="B209" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C209" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2560717825.jpg</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>燃情岁月 / Legends of the Fall</v>
+      </c>
+      <c r="B210" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C210" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1023654037.jpg</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>城市之光 / City Lights</v>
+      </c>
+      <c r="B211" t="str">
+        <v>9.3</v>
+      </c>
+      <c r="C211" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2170238828.jpg</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>穿越时空的少女 / 時をかける少女</v>
+      </c>
+      <c r="B212" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C212" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2079334286.jpg</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>牯岭街少年杀人事件 / 牯嶺街少年殺人事件</v>
+      </c>
+      <c r="B213" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C213" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p848381236.jpg</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>色，戒</v>
+      </c>
+      <c r="B214" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C214" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p453716305.jpg</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>新龙门客栈 / 新龍門客棧</v>
+      </c>
+      <c r="B215" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C215" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1421018669.jpg</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>无耻混蛋 / Inglourious Basterds</v>
+      </c>
+      <c r="B216" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C216" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2575043939.jpg</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>青蛇</v>
+      </c>
+      <c r="B217" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C217" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p584021784.jpg</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>源代码 / Source Code</v>
+      </c>
+      <c r="B218" t="str">
+        <v>8.4</v>
+      </c>
+      <c r="C218" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p988260245.jpg</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>完美陌生人 / Perfetti sconosciuti</v>
+      </c>
+      <c r="B219" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C219" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2522331945.jpg</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>阿飞正传 / 阿飛正傳</v>
+      </c>
+      <c r="B220" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C220" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2525770523.jpg</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>遗愿清单 / The Bucket List</v>
+      </c>
+      <c r="B221" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C221" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1208653481.jpg</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>血钻 / Blood Diamond</v>
+      </c>
+      <c r="B222" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C222" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1244017073.jpg</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>大佛普拉斯</v>
+      </c>
+      <c r="B223" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C223" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2505928032.jpg</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>谍影重重2 / The Bourne Supremacy</v>
+      </c>
+      <c r="B224" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C224" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p667644866.jpg</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>香水 / Perfume: The Story of a Murderer</v>
+      </c>
+      <c r="B225" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C225" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2441127736.jpg</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>地球上的星星 / Taare Zameen Par</v>
+      </c>
+      <c r="B226" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C226" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1973489335.jpg</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>战争之王 / Lord of War</v>
+      </c>
+      <c r="B227" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C227" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p792282381.jpg</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>谍影重重 / The Bourne Identity</v>
+      </c>
+      <c r="B228" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C228" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1597183981.jpg</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>疯狂的麦克斯4：狂暴之路 / Mad Max: Fury Road</v>
+      </c>
+      <c r="B229" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C229" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2236181653.jpg</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>九品芝麻官</v>
+      </c>
+      <c r="B230" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C230" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p648370300.jpg</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>步履不停 / 歩いても 歩いても</v>
+      </c>
+      <c r="B231" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C231" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p926535516.jpg</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>彗星来的那一夜 / Coherence</v>
+      </c>
+      <c r="B232" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C232" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2187896734.jpg</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>猜火车 / Trainspotting</v>
+      </c>
+      <c r="B233" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C233" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p513567548.jpg</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>哈利·波特与火焰杯 / Harry Potter and the Goblet of Fire</v>
+      </c>
+      <c r="B234" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="C234" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2220723219.jpg</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>朗读者 / The Reader</v>
+      </c>
+      <c r="B235" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C235" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1140984198.jpg</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>浪潮 / Die Welle</v>
+      </c>
+      <c r="B236" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C236" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1344888983.jpg</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>小萝莉的猴神大叔 / Bajrangi Bhaijaan</v>
+      </c>
+      <c r="B237" t="str">
+        <v>8.4</v>
+      </c>
+      <c r="C237" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2510956726.jpg</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>再次出发之纽约遇见你 / Begin Again</v>
+      </c>
+      <c r="B238" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C238" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2250287733.jpg</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>东京物语 / 東京物語</v>
+      </c>
+      <c r="B239" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="C239" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1925331564.jpg</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>驴得水</v>
+      </c>
+      <c r="B240" t="str">
+        <v>8.3</v>
+      </c>
+      <c r="C240" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2393044761.jpg</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>聚焦 / Spotlight</v>
+      </c>
+      <c r="B241" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C241" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2263822658.jpg</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>波西米亚狂想曲 / Bohemian Rhapsody</v>
+      </c>
+      <c r="B242" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C242" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2549558913.jpg</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>追随 / Following</v>
+      </c>
+      <c r="B243" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C243" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2561545031.jpg</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>千钧一发 / Gattaca</v>
+      </c>
+      <c r="B244" t="str">
+        <v>8.8</v>
+      </c>
+      <c r="C244" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2195672555.jpg</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>我爱你 / 그대를 사랑합니다</v>
+      </c>
+      <c r="B245" t="str">
+        <v>9.0</v>
+      </c>
+      <c r="C245" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1075591188.jpg</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>一次别离 / جدایی نادر از سیمین</v>
+      </c>
+      <c r="B246" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C246" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2189835254.jpg</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>黑鹰坠落 / Black Hawk Down</v>
+      </c>
+      <c r="B247" t="str">
+        <v>8.7</v>
+      </c>
+      <c r="C247" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1910900710.jpg</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>四个春天</v>
+      </c>
+      <c r="B248" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="C248" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2540578887.jpg</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>网络谜踪 / Searching</v>
+      </c>
+      <c r="B249" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C249" t="str">
+        <v>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2542848758.jpg</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>黑客帝国2：重装上阵 / The Matrix Reloaded</v>
+      </c>
+      <c r="B250" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C250" t="str">
+        <v>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p443461390.jpg</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>发条橙 / A Clockwork Orange</v>
+      </c>
+      <c r="B251" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="C251" t="str">
+        <v>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p529908155.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C251"/>
   </ignoredErrors>
 </worksheet>
 </file>